--- a/src/resources/file/scuola-danza/orari/vignate.xlsx
+++ b/src/resources/file/scuola-danza/orari/vignate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punta\Documents\OtherProject\newstyledance\src\resources\file\accademia-danza\orari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45850579-7B4C-4FBE-992B-E5A9AEBBF2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2CE72C-41D1-4089-B13F-4B41C676B732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="2265" windowWidth="21360" windowHeight="11700" activeTab="3" xr2:uid="{179A5CA7-6924-45EA-B1DE-DE7EBF6FE7EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{179A5CA7-6924-45EA-B1DE-DE7EBF6FE7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunedì" sheetId="1" r:id="rId1"/>
@@ -42,48 +42,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
-  <si>
-    <t>Sala 1</t>
-  </si>
-  <si>
-    <t>Sala 2</t>
-  </si>
-  <si>
-    <t>Sala 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>16.30/17.30 HIP HOP Junior</t>
-  </si>
-  <si>
-    <t>17.30/18.30 HIP HOP Kids</t>
-  </si>
-  <si>
-    <t>17.30/18.30 BREAKDANCE Junior</t>
-  </si>
-  <si>
-    <t>18.30/20.00 ZUMBA FITNESS</t>
-  </si>
-  <si>
-    <t>18.30/19.30 BREAKDANCE Base</t>
-  </si>
-  <si>
-    <t>20.00/21.00 DANZE POLINESIANE Base</t>
-  </si>
-  <si>
-    <t>20.30/21.30 DANZA DEL VENTRE Laboratorio coreografico</t>
-  </si>
-  <si>
-    <t>21.00/22.00 DANZE POLINESIANE</t>
-  </si>
-  <si>
-    <t>21.30/22.30 DANZA DEL VENTRE Intermedio</t>
-  </si>
-  <si>
-    <t>21.30/22.30 TANGO ARGENTINO</t>
+    <t>Sala 1 - PRIMO ANNO</t>
+  </si>
+  <si>
+    <t>Sala 2 - SECONDO ANNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala 1 - PRIMO ANNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala 2 - SECONDO ANNO </t>
+  </si>
+  <si>
+    <t>08:00/09:30 DANZA CLASSICA</t>
+  </si>
+  <si>
+    <t>09:30/11:00 SBARRA A TERRA</t>
+  </si>
+  <si>
+    <t>09:30/11:00 STORIA DEL TEATRO</t>
+  </si>
+  <si>
+    <t>11:00/12:00 MODERN CHRISTIAN CARUBELLI</t>
+  </si>
+  <si>
+    <t>12:00/13:00 HORTON - GRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00/15:00 STORIA DEL TEATRO </t>
+  </si>
+  <si>
+    <t>14:00/15:00 LABORATORIO COREOGRAFICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00/16:00 HIP HOP </t>
+  </si>
+  <si>
+    <t>08:00/09:30 CONTEMPORANEO</t>
+  </si>
+  <si>
+    <t>09:30/10:30 CONTAMINATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30/11:30 DANZE CARAIBICHE </t>
+  </si>
+  <si>
+    <t>10:30/11:30 ANATOMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30/12:30 STORIA DELLA DANZA </t>
+  </si>
+  <si>
+    <t>11:30/12:30 CARAIBICO</t>
+  </si>
+  <si>
+    <t>13:30/14:30 MODERN JAZZ</t>
+  </si>
+  <si>
+    <t>13:30/14:30 STORIA DELLA DANZA</t>
+  </si>
+  <si>
+    <t>14:30/15:30 MUSICA APPLICATA ALLA DANZA</t>
+  </si>
+  <si>
+    <t>14:30/15:30 MODERN JAZZ</t>
+  </si>
+  <si>
+    <t>09:30/11:00 MODERN</t>
+  </si>
+  <si>
+    <t>11:00/12:00 TEORIA DELLA DANZA</t>
+  </si>
+  <si>
+    <t>12:00/13:00 TIP TAP</t>
+  </si>
+  <si>
+    <t>13:00/14:00 MUSICAL</t>
+  </si>
+  <si>
+    <t>14:30/15:30 STORIA DEL COSTUME</t>
+  </si>
+  <si>
+    <t>14:30/15:30 VIDEODANCE</t>
+  </si>
+  <si>
+    <t>15:30/16:30 STORIA DEL COSTUME</t>
+  </si>
+  <si>
+    <t>09:30/11:00 FLOORWORK</t>
+  </si>
+  <si>
+    <t>11:00/12:30 DANZA DEL VENTRE - STORIA DELLA DANZA ORIENTALE</t>
+  </si>
+  <si>
+    <t>11:00/12:30 LUMINOTECNICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30/13.30 STORIA DELLA MUSICA </t>
+  </si>
+  <si>
+    <t>12.30/14.00 DANZA DEL VENTRE - STORIA DELLA DANZA ORIENTALE</t>
+  </si>
+  <si>
+    <t>14:30/15:00 LABORATORIO COREOGRAFICO</t>
+  </si>
+  <si>
+    <t>14:30/15:30 STORIA DELLA MUSICA</t>
+  </si>
+  <si>
+    <t>09:30/11:00 DANCE TRAINING</t>
+  </si>
+  <si>
+    <t>09:30/11:00 DANZA CLASSICA PUNTE</t>
+  </si>
+  <si>
+    <t>11:00/12:00 ACROBATICA</t>
+  </si>
+  <si>
+    <t>11:00/12:00 CANTO</t>
+  </si>
+  <si>
+    <t>12:00/13:00 MASTERSTRETCH</t>
+  </si>
+  <si>
+    <t>12:00/13:00 ACROBATICA</t>
+  </si>
+  <si>
+    <t>13:30/14:30 VIDEODANCE - HEELS</t>
+  </si>
+  <si>
+    <t>13:30/14:30 MASTERSTRETCH</t>
+  </si>
+  <si>
+    <t>14:30/15:30 CONTEMPORANEO</t>
+  </si>
+  <si>
+    <t>14:30/15:30 VIDEODANCE - HEELS</t>
   </si>
 </sst>
 </file>
@@ -123,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,11 +245,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -164,16 +276,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -192,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,67 +603,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA1E776-E3A4-44F5-B735-11407C671A82}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,51 +680,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A909A1-C369-4418-9B1A-00DEB93215DA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -612,150 +756,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A220C93-EBC1-460C-AFA4-00B9F0F7D850}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCA12A-7B63-43EE-B094-F3E6BC32E607}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="59.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,55 +916,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E023D2A3-688A-4BDC-B03F-794E97430765}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
